--- a/instruções.xlsx
+++ b/instruções.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>ADD</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -304,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +353,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -398,12 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,1074 +713,1131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E1" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100010</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100011</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100111</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100101</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100110</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>101010</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>101011</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1011</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>0</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>11010</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>11011</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>0</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>11000</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>11001</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10010</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10011</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1010</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1011</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>1101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1110</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>11100</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>10</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>11100</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E47" s="5">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>11100</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E48" s="5">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>11100</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>11100</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>11100</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>100</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>11100</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>101</v>
+      </c>
+      <c r="E52" s="12">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>11111</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>11111</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>100</v>
+      </c>
+      <c r="E54" s="7">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>11111</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
         <v>100000</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="E55" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>100001</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>11111</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E56" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>100011</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>100101</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>101000</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>101001</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>101011</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>11111</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>11111</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>100</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100001</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>100010</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>100011</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>100100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100111</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>100101</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100110</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>111</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>110</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>110</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>101010</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>101011</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1011</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1010</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>11100</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6">
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>0</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="11">
-        <v>11010</v>
-      </c>
-      <c r="E45" s="12">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>0</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11">
-        <v>11011</v>
-      </c>
-      <c r="E46" s="12">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>0</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11">
-        <v>11000</v>
-      </c>
-      <c r="E47" s="12">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>0</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11">
-        <v>11001</v>
-      </c>
-      <c r="E48" s="12">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>0</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1001</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1010</v>
-      </c>
-      <c r="E50" s="5">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>11100</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>100000</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>11100</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E52" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>11100</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>11100</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="11">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>11100</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="11">
-        <v>100</v>
-      </c>
-      <c r="E55" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>11100</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="11">
-        <v>101</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2</v>
+      <c r="F56" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1782,7 +1845,7 @@
         <v>11111</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>1</v>
@@ -1793,148 +1856,134 @@
       <c r="E57" s="5">
         <v>2</v>
       </c>
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>11111</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="A58" s="14">
         <v>100000</v>
       </c>
-      <c r="E58" s="5">
+      <c r="B58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>11111</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
-        <v>100000</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="A59" s="14">
+        <v>100001</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="A60" s="14">
+        <v>100011</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>2</v>
+      </c>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>10010</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>91</v>
+      <c r="A61" s="14">
+        <v>100101</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>10001</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>91</v>
+      <c r="A62" s="14">
+        <v>101000</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>10011</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>91</v>
+      <c r="A63" s="14">
+        <v>101001</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>91</v>
+      <c r="A64" s="14">
+        <v>101011</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:E64">
-    <sortCondition ref="C1:C64"/>
-    <sortCondition descending="1" ref="E1:E64"/>
+    <sortCondition ref="A1:A64"/>
+    <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1951,22 +2000,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -2484,46 +2533,46 @@
       <c r="J11" s="17"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2835,18 +2884,18 @@
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -2878,18 +2927,18 @@
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3349,18 +3398,18 @@
       <c r="J29" s="17"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -3375,18 +3424,18 @@
       <c r="J30" s="17"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -3861,18 +3910,18 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -3889,18 +3938,18 @@
       <c r="J41" s="17"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="18" t="s">
+      <c r="M41" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
@@ -4203,34 +4252,34 @@
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
     </row>
     <row r="49" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="18" t="s">
+      <c r="M49" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
     </row>
     <row r="50" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K50" s="13"/>
@@ -4445,6 +4494,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M48:V48"/>
+    <mergeCell ref="M49:V49"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="M19:V19"/>
+    <mergeCell ref="M29:V29"/>
+    <mergeCell ref="M30:V30"/>
+    <mergeCell ref="M40:V40"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="M41:V41"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="M1:V1"/>
@@ -4456,21 +4520,6 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="M18:V18"/>
-    <mergeCell ref="M19:V19"/>
-    <mergeCell ref="M29:V29"/>
-    <mergeCell ref="M30:V30"/>
-    <mergeCell ref="M40:V40"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="M41:V41"/>
-    <mergeCell ref="M48:V48"/>
-    <mergeCell ref="M49:V49"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A46:J46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
